--- a/Actual Coding/Luke_posts.xlsx
+++ b/Actual Coding/Luke_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>K9ILYD</t>
+          <t>OFSJT7</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>X0OYBK</t>
+          <t>10NBWD</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>XAX6WA</t>
+          <t>5K6QDN</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9XF2JY</t>
+          <t>X9DFWF</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5C1LG5</t>
+          <t>UBIJ04</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>G8PA18</t>
+          <t>JKEQ7Q</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JJZDO4</t>
+          <t>65EKSG</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>54MZQP</t>
+          <t>U1CKVG</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>S1Q2VE</t>
+          <t>Z9UGKY</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NXJ6KI</t>
+          <t>3LHGS4</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4QA9GF</t>
+          <t>HMVA34</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2U7K0I</t>
+          <t>7WULS5</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18HLNV</t>
+          <t>BFWM1J</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>X54VHA</t>
+          <t>19WFH7</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OC6BL6</t>
+          <t>INZW5R</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A37IBO</t>
+          <t>71SSXD</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>07UPLY</t>
+          <t>A88OEJ</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SXZCHY</t>
+          <t>T8JZTI</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LJRFLG</t>
+          <t>JP7I4Z</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>B40O9S</t>
+          <t>3M0IGM</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6K3EE5</t>
+          <t>WQ9L4I</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>T6UDU2</t>
+          <t>VE7QCG</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8Q1DIE</t>
+          <t>0IT2LU</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1OY901</t>
+          <t>ZWXU96</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DCE5CU</t>
+          <t>FTX08J</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LY3OET</t>
+          <t>QJGDRA</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>UMCUUG</t>
+          <t>NCVUIQ</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>YCOSUB</t>
+          <t>C17CB3</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5TF870</t>
+          <t>B58X4O</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LM9XFI</t>
+          <t>GNQGT0</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>YXBOKG</t>
+          <t>H6C5V6</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>6UCHMW</t>
+          <t>SD0DHR</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C50SWQ</t>
+          <t>I0268T</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>D7V9QB</t>
+          <t>CLZHO0</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>251A00</t>
+          <t>H50KVT</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>UN9ZN6</t>
+          <t>POCHEI</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>JCLK1W</t>
+          <t>OM4D76</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>G0KPYJ</t>
+          <t>QDQGUL</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VW0BLL</t>
+          <t>5P1AYJ</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>YYVIHD</t>
+          <t>YRV79J</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RJYWOR</t>
+          <t>MUSKHR</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DKPO5T</t>
+          <t>9NIK70</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HHZKSC</t>
+          <t>IOM5K3</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>WUSTPR</t>
+          <t>4OG2RJ</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>VVKAS5</t>
+          <t>Q82N27</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>E14BWZ</t>
+          <t>MIIDW8</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MCREUP</t>
+          <t>7H0WKH</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RORDKX</t>
+          <t>7BTV65</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>45L593</t>
+          <t>VDCGRE</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CM6DU7</t>
+          <t>P1DLW7</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NV2ZWW</t>
+          <t>6BOUK3</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HQDBUU</t>
+          <t>YDH721</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>OY0WEZ</t>
+          <t>2ZM9GG</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AGAPZR</t>
+          <t>1J8LCU</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HDNO5V</t>
+          <t>SKPR0H</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NEM9GE</t>
+          <t>BLDJK9</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>JCTALT</t>
+          <t>HAT4WI</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0B5RQG</t>
+          <t>C9DFEO</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>YVS2SN</t>
+          <t>S9Z8OP</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LGPDU3</t>
+          <t>4JCCH1</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>IYNV6U</t>
+          <t>60QOX0</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>8YKR9I</t>
+          <t>MAHTQF</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>S0X7KR</t>
+          <t>T2A75B</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>6JVF68</t>
+          <t>LFDTIM</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SV3KN4</t>
+          <t>TL3K4R</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>AETEQK</t>
+          <t>6HNYV4</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>XWIL3T</t>
+          <t>W8CN0Q</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>F22B4J</t>
+          <t>DMRSW8</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>H96HUJ</t>
+          <t>FTYJXG</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>A1AERF</t>
+          <t>6LMX5M</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>QQFQ1L</t>
+          <t>PHN9IK</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5HMFTI</t>
+          <t>KVYB1A</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>LMG7WK</t>
+          <t>WF5ZMO</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>915937</t>
+          <t>FQQVEB</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CFYEAZ</t>
+          <t>TPYU28</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BHTDXR</t>
+          <t>83XHVH</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>UJNMYQ</t>
+          <t>D212L6</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PJGZZB</t>
+          <t>BE0D1H</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>HRPJA6</t>
+          <t>FZ4VUP</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>G4ZZ2E</t>
+          <t>XE8U4C</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GJOWGX</t>
+          <t>I5YQGM</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MA3I68</t>
+          <t>UHUXY4</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>763RSN</t>
+          <t>YYTCK9</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>8MYOU2</t>
+          <t>HNOKQ3</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>REYWZJ</t>
+          <t>CQRGR9</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5EBHZL</t>
+          <t>4R3MPX</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>7X7BVG</t>
+          <t>F7BL0U</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>UWTV70</t>
+          <t>S94NX0</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X36QVD</t>
+          <t>3Z4M7K</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>L5UPB7</t>
+          <t>49YUOQ</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>KEJ6IH</t>
+          <t>DPO7MO</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>XVOD7R</t>
+          <t>J1XUJK</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>NU91QD</t>
+          <t>P9MYJ0</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>B50QV6</t>
+          <t>XQCYXO</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>OJ6VNA</t>
+          <t>1IFN3F</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>JZNK58</t>
+          <t>5QOTU1</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>9VBTGA</t>
+          <t>9K3DOL</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CZB5RV</t>
+          <t>8PJFD9</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DONQQ9</t>
+          <t>286CFP</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>REIBJ3</t>
+          <t>O1BWEX</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>USCBST</t>
+          <t>1WDLHK</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>7CFEOM</t>
+          <t>Y4XZG1</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1W5JZA</t>
+          <t>LNSVP5</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3M5MWR</t>
+          <t>FXFE5Q</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>DOVS1R</t>
+          <t>BUXMEF</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>U0L0OY</t>
+          <t>9DWDCN</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>8UL6JB</t>
+          <t>VRWGX4</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>8MCZPG</t>
+          <t>BQAFLG</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>QJ9DPQ</t>
+          <t>0G1WKZ</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>XK25O8</t>
+          <t>R2RX3K</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>C3ZJEB</t>
+          <t>OE580Q</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>M3W9KM</t>
+          <t>VJ0M07</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>KVWV3A</t>
+          <t>73XLS9</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>LCDN4U</t>
+          <t>BA8GIM</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>YAFM67</t>
+          <t>XXF90G</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>UATM2Z</t>
+          <t>KY2TZR</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DK6FSK</t>
+          <t>LIFQFR</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>N7WMF1</t>
+          <t>5QJYG2</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>YVLSPM</t>
+          <t>5RAWB8</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ITMTBM</t>
+          <t>NW3HHA</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>7YULGQ</t>
+          <t>I7SZJ2</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>962BF3</t>
+          <t>MZ8DA0</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>126YB0</t>
+          <t>N4D5JK</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>GC85HC</t>
+          <t>PWOW5R</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HXGA6A</t>
+          <t>9ULQ9Z</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CQRR5P</t>
+          <t>6CLVLN</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2HF19Q</t>
+          <t>4OA4J4</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>IEEX5I</t>
+          <t>9YNSNK</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>J8F4IU</t>
+          <t>N0YJCB</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>UB2JIL</t>
+          <t>7ZFWX3</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HCCVZF</t>
+          <t>85T98W</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>FF7XYG</t>
+          <t>9776ZO</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>WA7XM8</t>
+          <t>4QS47V</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>9ICGWU</t>
+          <t>E60JE3</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>QQJ8MB</t>
+          <t>BHWXKD</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>V8EHOC</t>
+          <t>LI2UFK</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>R1ZWRV</t>
+          <t>RVC868</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>XWYK1V</t>
+          <t>QDPM5Y</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>89TO4Y</t>
+          <t>B6TK4S</t>
         </is>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>90PFUN</t>
+          <t>5D3P3U</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>VD1QO8</t>
+          <t>ZA4DQQ</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DTIROU</t>
+          <t>1TP8S0</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>PI29OF</t>
+          <t>9T3QIA</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>RR4ZUG</t>
+          <t>632RMH</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>JTC44R</t>
+          <t>XPN3TT</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>9EELN1</t>
+          <t>E6MPOD</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>B88S1M</t>
+          <t>ZW11KC</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>IGVX4V</t>
+          <t>277NOH</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CCG3ON</t>
+          <t>6HHQ2R</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>L8H399</t>
+          <t>VBQQ7R</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>8ZX61L</t>
+          <t>CJNYO6</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>7OFBL5</t>
+          <t>6JS9RP</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DV43L8</t>
+          <t>Y1KUM2</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>JUPCI9</t>
+          <t>NOIPCZ</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>W8MYFM</t>
+          <t>74TD0B</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>B4R6E4</t>
+          <t>TMTD5K</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>7537OT</t>
+          <t>N5H5ER</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>BBTKKO</t>
+          <t>0XRWN2</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>NV0A3W</t>
+          <t>8R9IDV</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Q79KSR</t>
+          <t>4H6H8J</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>DB5XJV</t>
+          <t>T0VLC5</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>IPGFKD</t>
+          <t>C0IRZO</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>U56HU5</t>
+          <t>TER73D</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>JHXC90</t>
+          <t>PVM6LU</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>T1WVMR</t>
+          <t>T1ZFNL</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0BMJRP</t>
+          <t>RQNK5M</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>JS8NEC</t>
+          <t>GU6QBB</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>EBOWZX</t>
+          <t>A11Z9Z</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>S29VFT</t>
+          <t>4EWGKA</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>NEYBQA</t>
+          <t>4RCDHU</t>
         </is>
       </c>
     </row>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ZFEKE7</t>
+          <t>LQSN7T</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>3HZ5JY</t>
+          <t>MV2E6Z</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>E8KU4C</t>
+          <t>756WEZ</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>KZP51Q</t>
+          <t>WLSUGD</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HFQWTR</t>
+          <t>M7GVW1</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1VMBCG</t>
+          <t>J7SGRH</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>I47LOK</t>
+          <t>R97ZSP</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>A8K21R</t>
+          <t>WMPKAR</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Z2DNXU</t>
+          <t>WB66CR</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>N6VVCO</t>
+          <t>HPZMGU</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>OYD6WG</t>
+          <t>YPP2DH</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>QWQA4L</t>
+          <t>30355E</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>6IIATO</t>
+          <t>2YW8WH</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>X1PCDZ</t>
+          <t>T0SX3N</t>
         </is>
       </c>
     </row>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Z804SN</t>
+          <t>UGGYCG</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>N88L02</t>
+          <t>NTZJEW</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ORW4O3</t>
+          <t>ES8FQV</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>51UUBT</t>
+          <t>VVOJ0T</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>PC8YJR</t>
+          <t>1T2D6M</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>P386MV</t>
+          <t>28XGO0</t>
         </is>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>LQ0C7E</t>
+          <t>OYZIVX</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>O6BFEB</t>
+          <t>F2NGSG</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>354Y2P</t>
+          <t>X58WQM</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0VRPMY</t>
+          <t>Z612M9</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>KU6HKW</t>
+          <t>80UCRU</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>5Z7I57</t>
+          <t>38VJIE</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HFVKI1</t>
+          <t>Z3EVR5</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RCNPWD</t>
+          <t>C4ZITF</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>V9FI2C</t>
+          <t>Z2JHTY</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>TNINN5</t>
+          <t>VICD88</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>14GNX7</t>
+          <t>JEREJC</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>KUMSKD</t>
+          <t>N6V5TS</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>CYK5LR</t>
+          <t>RNBDQQ</t>
         </is>
       </c>
     </row>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>6K20UM</t>
+          <t>02J721</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>8BLZ98</t>
+          <t>2LG61D</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>MYVWMQ</t>
+          <t>VS58D4</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>878MEA</t>
+          <t>ZA7UJ8</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>TURTYD</t>
+          <t>2JZG19</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Z9QRIM</t>
+          <t>AZBFVU</t>
         </is>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>L04AB8</t>
+          <t>G3WKLQ</t>
         </is>
       </c>
     </row>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>VUS9RB</t>
+          <t>RJ87HR</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>JVVPIP</t>
+          <t>LLIYWB</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>S3TV4F</t>
+          <t>K3E3QP</t>
         </is>
       </c>
     </row>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>EW0IDT</t>
+          <t>9WM28I</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>ZWTG4G</t>
+          <t>1UJPMX</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>6PDGYM</t>
+          <t>G0SHCY</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>1CNP4H</t>
+          <t>TR3T0X</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>9ETQRO</t>
+          <t>WLJHQ9</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>B8OLGE</t>
+          <t>03IYBZ</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>UQOV9X</t>
+          <t>YD3WLM</t>
         </is>
       </c>
     </row>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>YXVDTW</t>
+          <t>JK6IUA</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EJSOHT</t>
+          <t>JSGEEL</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0MYITY</t>
+          <t>NRJXNV</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>YAEAFS</t>
+          <t>FMTF4K</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>ZXHO1Y</t>
+          <t>ZP4UMC</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>FNJTYI</t>
+          <t>H7IBBA</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>PKRUMD</t>
+          <t>LY4T1G</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>EED9Z8</t>
+          <t>1560LD</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>ZLGDOT</t>
+          <t>OAZNCT</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>B6MZ48</t>
+          <t>W079MC</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>BVH4WE</t>
+          <t>Z3JP4I</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>81TCEB</t>
+          <t>9Q11E1</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>PW0JMH</t>
+          <t>5ZWPF6</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>KHXAHG</t>
+          <t>TH4NER</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>WUC954</t>
+          <t>P9FJHL</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>70KIQT</t>
+          <t>RCHOH9</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>IQ02RS</t>
+          <t>TZME0A</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>III63J</t>
+          <t>EPSY37</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>4LU0M9</t>
+          <t>HSAUOW</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>78LFVO</t>
+          <t>YDWKN3</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>V0205F</t>
+          <t>BULCWO</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2MXLIT</t>
+          <t>4WI10S</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>7JXZX8</t>
+          <t>J3GF2D</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>F524OZ</t>
+          <t>8EKFQF</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>8VVXOO</t>
+          <t>W6JS7W</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>6GKFE7</t>
+          <t>8UAR0W</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>VTJAFG</t>
+          <t>KT6EXP</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>KBYZBI</t>
+          <t>EW6ZLS</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>EMURZC</t>
+          <t>J3J7AR</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>GGLXQ8</t>
+          <t>YK7MSY</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>V8TL6K</t>
+          <t>S89HGJ</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>YGPD3Z</t>
+          <t>JLNHXQ</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>9V1W2N</t>
+          <t>JSVNAV</t>
         </is>
       </c>
     </row>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>RITW4B</t>
+          <t>HWDK0V</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>CFI0ZW</t>
+          <t>XSG85R</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>YQUN12</t>
+          <t>WVWPVS</t>
         </is>
       </c>
     </row>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0GSBTJ</t>
+          <t>KQME9C</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>NTSSDW</t>
+          <t>C2AC07</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>VJTRIL</t>
+          <t>M9S37F</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>786NWN</t>
+          <t>QH5VSO</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>GGEPKN</t>
+          <t>5GG35W</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>JW3NFY</t>
+          <t>U9GGQM</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>KVIV9A</t>
+          <t>85RAAH</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>UR2I44</t>
+          <t>FUSSW2</t>
         </is>
       </c>
     </row>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>EOHMYL</t>
+          <t>J32TX5</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>8PVD17</t>
+          <t>I7FK2I</t>
         </is>
       </c>
     </row>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>RO1NQE</t>
+          <t>Q1Y1DW</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>6VLHP5</t>
+          <t>BFBHSO</t>
         </is>
       </c>
     </row>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>JM63XF</t>
+          <t>UMATIR</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>90XTRO</t>
+          <t>W0MERU</t>
         </is>
       </c>
     </row>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>TGDSE0</t>
+          <t>ZF92K6</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>BS75I9</t>
+          <t>DWY9EH</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>WXWCTQ</t>
+          <t>2UBCA4</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>RDJORT</t>
+          <t>CMJ1LR</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>E29PN7</t>
+          <t>ZTYTYS</t>
         </is>
       </c>
     </row>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>8BOFZD</t>
+          <t>6FNIOX</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>G3O8D0</t>
+          <t>4W1XCQ</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>SE2N2B</t>
+          <t>T23IZW</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>G0GXFY</t>
+          <t>EAWPGI</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>WH84FN</t>
+          <t>MFW099</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0HQBIR</t>
+          <t>D24UEO</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>FRN7PY</t>
+          <t>4WI6AD</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>TDI3VE</t>
+          <t>BAA7AG</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>D1YXVG</t>
+          <t>P8MJVI</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>SLY7H6</t>
+          <t>BYBH3T</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>EBZH6L</t>
+          <t>0DEGQE</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>SEP5G2</t>
+          <t>WBG0E8</t>
         </is>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>GT42UB</t>
+          <t>T620WE</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>EOKWNS</t>
+          <t>858OTJ</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>VE94DQ</t>
+          <t>NQD0BP</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>B2A71V</t>
+          <t>JABCUU</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Y1G1E8</t>
+          <t>0SD5IM</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>TKXHCV</t>
+          <t>6EBBY0</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>T7LEDU</t>
+          <t>5AEK06</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>5ZXHWW</t>
+          <t>BM5YBX</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>2OVUR9</t>
+          <t>JI672T</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>HOPAG8</t>
+          <t>HXLUUW</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>35GZGJ</t>
+          <t>SXPGWX</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>OQCO0B</t>
+          <t>OTCPYY</t>
         </is>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>IZRH0D</t>
+          <t>PRRMX2</t>
         </is>
       </c>
     </row>

--- a/Actual Coding/Luke_posts.xlsx
+++ b/Actual Coding/Luke_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OFSJT7</t>
+          <t>0HGN2V</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10NBWD</t>
+          <t>936B5T</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5K6QDN</t>
+          <t>FP9T3Y</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>X9DFWF</t>
+          <t>5IOXOB</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UBIJ04</t>
+          <t>DROC6P</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JKEQ7Q</t>
+          <t>TNWT5E</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>65EKSG</t>
+          <t>8VAVKV</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>U1CKVG</t>
+          <t>1GEYPT</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Z9UGKY</t>
+          <t>ZVDDWD</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3LHGS4</t>
+          <t>6U2X9V</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HMVA34</t>
+          <t>6GAL9K</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7WULS5</t>
+          <t>N9VGI5</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BFWM1J</t>
+          <t>PFHQA9</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19WFH7</t>
+          <t>6T8N7J</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>INZW5R</t>
+          <t>GWN9KK</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>71SSXD</t>
+          <t>X4WZ53</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A88OEJ</t>
+          <t>NOADFS</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>T8JZTI</t>
+          <t>YLV5J5</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>JP7I4Z</t>
+          <t>4Q05W4</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3M0IGM</t>
+          <t>M3WXGZ</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WQ9L4I</t>
+          <t>W51J1R</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>VE7QCG</t>
+          <t>HDT958</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0IT2LU</t>
+          <t>S8D9E7</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ZWXU96</t>
+          <t>3WD4MX</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FTX08J</t>
+          <t>PP66O1</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>QJGDRA</t>
+          <t>ZCI7RC</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NCVUIQ</t>
+          <t>GNTN3Y</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C17CB3</t>
+          <t>HVE3CF</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B58X4O</t>
+          <t>9BHFEE</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GNQGT0</t>
+          <t>7N4B8E</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>H6C5V6</t>
+          <t>35LJ2F</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SD0DHR</t>
+          <t>7AZ1MI</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>I0268T</t>
+          <t>8Q3MU2</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CLZHO0</t>
+          <t>D3BO5U</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>H50KVT</t>
+          <t>NEJXGC</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>POCHEI</t>
+          <t>5VISWD</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>OM4D76</t>
+          <t>J6XKL8</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>QDQGUL</t>
+          <t>Y54H7H</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5P1AYJ</t>
+          <t>00JF0S</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>YRV79J</t>
+          <t>5Z38ME</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MUSKHR</t>
+          <t>CWOLNF</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>9NIK70</t>
+          <t>E5Q3D1</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>IOM5K3</t>
+          <t>E2DA7S</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4OG2RJ</t>
+          <t>WY9028</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Q82N27</t>
+          <t>4YMIKX</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MIIDW8</t>
+          <t>6ZSJAA</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>7H0WKH</t>
+          <t>9HRC1C</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>7BTV65</t>
+          <t>SO8JJ8</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>VDCGRE</t>
+          <t>9GXCTL</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>P1DLW7</t>
+          <t>CGZF8Y</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>6BOUK3</t>
+          <t>4T1HI0</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>YDH721</t>
+          <t>VA42HJ</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2ZM9GG</t>
+          <t>FBLI6M</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1J8LCU</t>
+          <t>FNHOUY</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SKPR0H</t>
+          <t>CCPJGP</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BLDJK9</t>
+          <t>FRAP1Y</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>HAT4WI</t>
+          <t>YS081O</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>C9DFEO</t>
+          <t>2NQOZ6</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>S9Z8OP</t>
+          <t>1AZM48</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4JCCH1</t>
+          <t>Y668ZL</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>60QOX0</t>
+          <t>FLDK78</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MAHTQF</t>
+          <t>JE0BXM</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>T2A75B</t>
+          <t>MAWQ6N</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>LFDTIM</t>
+          <t>H3M5J1</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>TL3K4R</t>
+          <t>TA957R</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>6HNYV4</t>
+          <t>WQKZNP</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>W8CN0Q</t>
+          <t>VIT7YC</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DMRSW8</t>
+          <t>NYNFAL</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>FTYJXG</t>
+          <t>MOWQSG</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>6LMX5M</t>
+          <t>SRJHB5</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PHN9IK</t>
+          <t>6ASA6B</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>KVYB1A</t>
+          <t>YPDUB6</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>WF5ZMO</t>
+          <t>HZ7FUB</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>FQQVEB</t>
+          <t>PZ6ENT</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>TPYU28</t>
+          <t>OS48SE</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>83XHVH</t>
+          <t>G9DB7M</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>D212L6</t>
+          <t>EOFD27</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BE0D1H</t>
+          <t>1FVOZU</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>FZ4VUP</t>
+          <t>GFA752</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>XE8U4C</t>
+          <t>CFJUYN</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>I5YQGM</t>
+          <t>JW01WB</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>UHUXY4</t>
+          <t>D20QLD</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>YYTCK9</t>
+          <t>DMS55Y</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HNOKQ3</t>
+          <t>DMD4HC</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CQRGR9</t>
+          <t>R14DV6</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>4R3MPX</t>
+          <t>OZDU46</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>F7BL0U</t>
+          <t>LOSJ96</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>S94NX0</t>
+          <t>D87NXB</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3Z4M7K</t>
+          <t>QD6CSG</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>49YUOQ</t>
+          <t>0Q7ERQ</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DPO7MO</t>
+          <t>81LY93</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>J1XUJK</t>
+          <t>0BVLDO</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>P9MYJ0</t>
+          <t>NNG0EE</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>XQCYXO</t>
+          <t>EGM3GB</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1IFN3F</t>
+          <t>2AT5XU</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>5QOTU1</t>
+          <t>1WBL6N</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>9K3DOL</t>
+          <t>CASO6I</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>8PJFD9</t>
+          <t>AUQ8NM</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>286CFP</t>
+          <t>3THORG</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>O1BWEX</t>
+          <t>B554U8</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1WDLHK</t>
+          <t>LIJIQ6</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Y4XZG1</t>
+          <t>2CTHEQ</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>LNSVP5</t>
+          <t>F5ES1B</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>FXFE5Q</t>
+          <t>CNB27Q</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>BUXMEF</t>
+          <t>RMTX3T</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>9DWDCN</t>
+          <t>WBABLS</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>VRWGX4</t>
+          <t>RILVJJ</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>BQAFLG</t>
+          <t>5G5TRS</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0G1WKZ</t>
+          <t>5P3XEY</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>R2RX3K</t>
+          <t>FYAR60</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>OE580Q</t>
+          <t>PP9L66</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>VJ0M07</t>
+          <t>MT4NJC</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>73XLS9</t>
+          <t>JVFQ2Y</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>BA8GIM</t>
+          <t>SF1QOT</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>XXF90G</t>
+          <t>FT1E1J</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>KY2TZR</t>
+          <t>841OQ2</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>LIFQFR</t>
+          <t>QSP7W8</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>5QJYG2</t>
+          <t>6REMXZ</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>5RAWB8</t>
+          <t>V5S5OG</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>NW3HHA</t>
+          <t>DPKT52</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>I7SZJ2</t>
+          <t>XRI0Y6</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>MZ8DA0</t>
+          <t>VRLNJY</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>N4D5JK</t>
+          <t>LSW6CZ</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PWOW5R</t>
+          <t>L9PE9C</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>9ULQ9Z</t>
+          <t>VEY7X0</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>6CLVLN</t>
+          <t>NMDYM4</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4OA4J4</t>
+          <t>YKBBJL</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>9YNSNK</t>
+          <t>5P3UYL</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>N0YJCB</t>
+          <t>6G6SJS</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>7ZFWX3</t>
+          <t>GNEJEX</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>85T98W</t>
+          <t>FBK09Y</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>9776ZO</t>
+          <t>CW0JL8</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>4QS47V</t>
+          <t>6FVZPX</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>E60JE3</t>
+          <t>DWWVB0</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BHWXKD</t>
+          <t>TSGQLG</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>LI2UFK</t>
+          <t>CIZEER</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>RVC868</t>
+          <t>LCW5JE</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>QDPM5Y</t>
+          <t>IVHMTS</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>B6TK4S</t>
+          <t>KHT6LA</t>
         </is>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>5D3P3U</t>
+          <t>5WRWE5</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ZA4DQQ</t>
+          <t>8BSAHJ</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1TP8S0</t>
+          <t>BV6T6L</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>9T3QIA</t>
+          <t>OMDYC4</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>632RMH</t>
+          <t>ROUEJE</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>XPN3TT</t>
+          <t>YHRY0F</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>E6MPOD</t>
+          <t>2TQO92</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ZW11KC</t>
+          <t>R6YWDT</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>277NOH</t>
+          <t>AGXCT6</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>6HHQ2R</t>
+          <t>MJ25Q1</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>VBQQ7R</t>
+          <t>M62YVM</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>CJNYO6</t>
+          <t>EU3JX0</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>6JS9RP</t>
+          <t>QG2KGR</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Y1KUM2</t>
+          <t>IZE98C</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>NOIPCZ</t>
+          <t>WZKHAC</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>74TD0B</t>
+          <t>4ZC5YA</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>TMTD5K</t>
+          <t>UXTGF0</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>N5H5ER</t>
+          <t>GEXURX</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0XRWN2</t>
+          <t>9ULX92</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>8R9IDV</t>
+          <t>F3T0HY</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>4H6H8J</t>
+          <t>XX61ZV</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>T0VLC5</t>
+          <t>I9C4SZ</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>C0IRZO</t>
+          <t>ZTAL45</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>TER73D</t>
+          <t>5BTHZ5</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>PVM6LU</t>
+          <t>15ZVS1</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>T1ZFNL</t>
+          <t>6TPFAI</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>RQNK5M</t>
+          <t>F0O04H</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>GU6QBB</t>
+          <t>77EJ9U</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>A11Z9Z</t>
+          <t>CHHIK5</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>4EWGKA</t>
+          <t>V7KVRP</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>4RCDHU</t>
+          <t>WGI0WB</t>
         </is>
       </c>
     </row>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>LQSN7T</t>
+          <t>ZPQSLC</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>MV2E6Z</t>
+          <t>2Q61QI</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>756WEZ</t>
+          <t>6BWSOX</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>WLSUGD</t>
+          <t>J6WDLK</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>M7GVW1</t>
+          <t>EZC2KR</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>J7SGRH</t>
+          <t>VVJHX0</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>R97ZSP</t>
+          <t>2QM93G</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>WMPKAR</t>
+          <t>59VQA3</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>WB66CR</t>
+          <t>W77PSO</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>HPZMGU</t>
+          <t>EBGURX</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>YPP2DH</t>
+          <t>AFSWCB</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>30355E</t>
+          <t>MJMDE7</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2YW8WH</t>
+          <t>9J5ANR</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>T0SX3N</t>
+          <t>5MA015</t>
         </is>
       </c>
     </row>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>UGGYCG</t>
+          <t>Z94YEX</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>NTZJEW</t>
+          <t>4PFJG3</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ES8FQV</t>
+          <t>KJ3OH4</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>VVOJ0T</t>
+          <t>LQG7FA</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1T2D6M</t>
+          <t>4BMKLF</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>28XGO0</t>
+          <t>WLAWH5</t>
         </is>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>OYZIVX</t>
+          <t>60VHE5</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>F2NGSG</t>
+          <t>NSK4XV</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>X58WQM</t>
+          <t>0GVNQU</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Z612M9</t>
+          <t>YML7JH</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>80UCRU</t>
+          <t>8H3S5H</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>38VJIE</t>
+          <t>TSEDKF</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Z3EVR5</t>
+          <t>0DIMIC</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>C4ZITF</t>
+          <t>WEBW6M</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Z2JHTY</t>
+          <t>TTC3NQ</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>VICD88</t>
+          <t>7G17I0</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>JEREJC</t>
+          <t>4CG9O5</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N6V5TS</t>
+          <t>IDQP1E</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>RNBDQQ</t>
+          <t>VFEV3O</t>
         </is>
       </c>
     </row>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>02J721</t>
+          <t>GHWQQN</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2LG61D</t>
+          <t>RYJZQI</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>VS58D4</t>
+          <t>S25U1V</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ZA7UJ8</t>
+          <t>53ENMO</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2JZG19</t>
+          <t>LK7UN7</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>AZBFVU</t>
+          <t>AZSM5E</t>
         </is>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>G3WKLQ</t>
+          <t>C32OOS</t>
         </is>
       </c>
     </row>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>RJ87HR</t>
+          <t>N5AOQU</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>LLIYWB</t>
+          <t>KAN6BZ</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>K3E3QP</t>
+          <t>8W5CML</t>
         </is>
       </c>
     </row>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>9WM28I</t>
+          <t>O2B9LF</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>1UJPMX</t>
+          <t>J2UC64</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>G0SHCY</t>
+          <t>RGGIBC</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>TR3T0X</t>
+          <t>55OS8Y</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>WLJHQ9</t>
+          <t>50L75U</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>03IYBZ</t>
+          <t>WOVUOR</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>YD3WLM</t>
+          <t>HI9C54</t>
         </is>
       </c>
     </row>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>JK6IUA</t>
+          <t>13C5KD</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>JSGEEL</t>
+          <t>3VQNVT</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>NRJXNV</t>
+          <t>2LYB8M</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>FMTF4K</t>
+          <t>P8239V</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>ZP4UMC</t>
+          <t>DXEGMC</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>H7IBBA</t>
+          <t>1XVGXU</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>LY4T1G</t>
+          <t>2AA3BL</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>1560LD</t>
+          <t>G3N9OV</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>OAZNCT</t>
+          <t>74OM93</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>W079MC</t>
+          <t>Y6BZGR</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Z3JP4I</t>
+          <t>DNX1ZE</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>9Q11E1</t>
+          <t>UL1A3E</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>5ZWPF6</t>
+          <t>JL36JR</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>TH4NER</t>
+          <t>HPHG5A</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>P9FJHL</t>
+          <t>EQP8O8</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>RCHOH9</t>
+          <t>ZARGKL</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>TZME0A</t>
+          <t>67OUDX</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>EPSY37</t>
+          <t>0Z4O0E</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>HSAUOW</t>
+          <t>JY42W1</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>YDWKN3</t>
+          <t>2CCSFP</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>BULCWO</t>
+          <t>WJOWIJ</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>4WI10S</t>
+          <t>OXYIKU</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>J3GF2D</t>
+          <t>4P1UXZ</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>8EKFQF</t>
+          <t>O15WSM</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>W6JS7W</t>
+          <t>I919XP</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>8UAR0W</t>
+          <t>I7X7B1</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>KT6EXP</t>
+          <t>BACBXT</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>EW6ZLS</t>
+          <t>RA8553</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>J3J7AR</t>
+          <t>GU5PB5</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>YK7MSY</t>
+          <t>TMMGZD</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>S89HGJ</t>
+          <t>0BR3KY</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>JLNHXQ</t>
+          <t>V2TESU</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>JSVNAV</t>
+          <t>BHE586</t>
         </is>
       </c>
     </row>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>HWDK0V</t>
+          <t>VJN4J0</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>XSG85R</t>
+          <t>J89M57</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>WVWPVS</t>
+          <t>4MXI44</t>
         </is>
       </c>
     </row>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>KQME9C</t>
+          <t>6AF4N3</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>C2AC07</t>
+          <t>W80FJ0</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>M9S37F</t>
+          <t>7HTABK</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>QH5VSO</t>
+          <t>CYT2CG</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>5GG35W</t>
+          <t>M4RKLE</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>U9GGQM</t>
+          <t>RZTIHS</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>85RAAH</t>
+          <t>FEW1UY</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>FUSSW2</t>
+          <t>K81HSF</t>
         </is>
       </c>
     </row>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>J32TX5</t>
+          <t>VWBQE0</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>I7FK2I</t>
+          <t>57J4GX</t>
         </is>
       </c>
     </row>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Q1Y1DW</t>
+          <t>Z2URG4</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>BFBHSO</t>
+          <t>5SDTBX</t>
         </is>
       </c>
     </row>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>UMATIR</t>
+          <t>48KBTE</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>W0MERU</t>
+          <t>K85E9I</t>
         </is>
       </c>
     </row>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>ZF92K6</t>
+          <t>S44VLB</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>DWY9EH</t>
+          <t>N2JI3C</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>2UBCA4</t>
+          <t>7A2QQT</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>CMJ1LR</t>
+          <t>ZUMSYM</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>ZTYTYS</t>
+          <t>6BAIZW</t>
         </is>
       </c>
     </row>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>6FNIOX</t>
+          <t>6WVF64</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>4W1XCQ</t>
+          <t>291M2Q</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>T23IZW</t>
+          <t>7IYX4Z</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>EAWPGI</t>
+          <t>5WD0C4</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>MFW099</t>
+          <t>PGZDEV</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>D24UEO</t>
+          <t>C4F0VY</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>4WI6AD</t>
+          <t>OAVPUI</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>BAA7AG</t>
+          <t>V4TTPM</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>P8MJVI</t>
+          <t>O5DNHD</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>BYBH3T</t>
+          <t>ZNGCN1</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0DEGQE</t>
+          <t>CFGT0X</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>WBG0E8</t>
+          <t>RTZ1ZG</t>
         </is>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>T620WE</t>
+          <t>FHQ0RC</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>858OTJ</t>
+          <t>7BA4RL</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>NQD0BP</t>
+          <t>JICDRT</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>JABCUU</t>
+          <t>VNGYT8</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0SD5IM</t>
+          <t>HBYC2R</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>6EBBY0</t>
+          <t>IJL34E</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>5AEK06</t>
+          <t>30BNYR</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>BM5YBX</t>
+          <t>J6272D</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>JI672T</t>
+          <t>TYTTLB</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>HXLUUW</t>
+          <t>RMBQRH</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>SXPGWX</t>
+          <t>X9L8EM</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>OTCPYY</t>
+          <t>WP2X0A</t>
         </is>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>PRRMX2</t>
+          <t>PXELKM</t>
         </is>
       </c>
     </row>

--- a/Actual Coding/Luke_posts.xlsx
+++ b/Actual Coding/Luke_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0HGN2V</t>
+          <t>DJU8R1</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>936B5T</t>
+          <t>UA0Q93</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FP9T3Y</t>
+          <t>53H28R</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5IOXOB</t>
+          <t>TZJ8ZR</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DROC6P</t>
+          <t>D81R42</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TNWT5E</t>
+          <t>YQQJRG</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8VAVKV</t>
+          <t>LRIPTP</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1GEYPT</t>
+          <t>1KJ3SW</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ZVDDWD</t>
+          <t>2JAGBF</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6U2X9V</t>
+          <t>BQRA6W</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6GAL9K</t>
+          <t>882PRK</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N9VGI5</t>
+          <t>1OHAO3</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PFHQA9</t>
+          <t>8FOLKE</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6T8N7J</t>
+          <t>EJDXDV</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GWN9KK</t>
+          <t>UT0RXC</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>X4WZ53</t>
+          <t>XGAEQU</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NOADFS</t>
+          <t>1JKSME</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>YLV5J5</t>
+          <t>VBSQFH</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4Q05W4</t>
+          <t>O8RNC1</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>M3WXGZ</t>
+          <t>SN450K</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>W51J1R</t>
+          <t>HOQAVE</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HDT958</t>
+          <t>3AGYIL</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>S8D9E7</t>
+          <t>4JJQY1</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3WD4MX</t>
+          <t>O0GSJ6</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PP66O1</t>
+          <t>11MW10</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ZCI7RC</t>
+          <t>2Y8PY8</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GNTN3Y</t>
+          <t>RNA75K</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HVE3CF</t>
+          <t>V390SV</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>9BHFEE</t>
+          <t>3BY59S</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7N4B8E</t>
+          <t>WYQ3KR</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>35LJ2F</t>
+          <t>3WAYE0</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7AZ1MI</t>
+          <t>5QKKJG</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8Q3MU2</t>
+          <t>GJIALE</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>D3BO5U</t>
+          <t>3BM3H4</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NEJXGC</t>
+          <t>VRH7LH</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5VISWD</t>
+          <t>GXDWJ7</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>J6XKL8</t>
+          <t>D3NFW7</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Y54H7H</t>
+          <t>P6FE6P</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>00JF0S</t>
+          <t>IVWHC9</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5Z38ME</t>
+          <t>QNG8J1</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CWOLNF</t>
+          <t>1IEMCP</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>E5Q3D1</t>
+          <t>ZY812K</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>E2DA7S</t>
+          <t>5M1LSP</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>WY9028</t>
+          <t>KCM9LJ</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4YMIKX</t>
+          <t>4N00VS</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>6ZSJAA</t>
+          <t>ZG9MWK</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>9HRC1C</t>
+          <t>5BUWOB</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SO8JJ8</t>
+          <t>4FANJ0</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>9GXCTL</t>
+          <t>IZLDFJ</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CGZF8Y</t>
+          <t>1QXDVU</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4T1HI0</t>
+          <t>AMLA0A</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>VA42HJ</t>
+          <t>GR8N5U</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>FBLI6M</t>
+          <t>2BIQJR</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>FNHOUY</t>
+          <t>YZYN4X</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CCPJGP</t>
+          <t>1ARKCL</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>FRAP1Y</t>
+          <t>M6G6MV</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>YS081O</t>
+          <t>6RC9PH</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2NQOZ6</t>
+          <t>CSLICX</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1AZM48</t>
+          <t>WER6NZ</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Y668ZL</t>
+          <t>HE9GES</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>FLDK78</t>
+          <t>P76WS4</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>JE0BXM</t>
+          <t>4WTQ47</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MAWQ6N</t>
+          <t>4BE0XN</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>H3M5J1</t>
+          <t>0BYY30</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>TA957R</t>
+          <t>LLRBQQ</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>WQKZNP</t>
+          <t>7KQLEC</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>VIT7YC</t>
+          <t>GF9YV7</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NYNFAL</t>
+          <t>Q7TS7J</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MOWQSG</t>
+          <t>OYYXWP</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SRJHB5</t>
+          <t>HXCGYG</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>6ASA6B</t>
+          <t>HJ0Q69</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>YPDUB6</t>
+          <t>GZBJPV</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HZ7FUB</t>
+          <t>RMQVK6</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PZ6ENT</t>
+          <t>FQP9LO</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>OS48SE</t>
+          <t>FJQ908</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>G9DB7M</t>
+          <t>MW7SID</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>EOFD27</t>
+          <t>1JMR4J</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1FVOZU</t>
+          <t>CASO89</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GFA752</t>
+          <t>WGL7AF</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CFJUYN</t>
+          <t>VJ0COM</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JW01WB</t>
+          <t>4UPWWT</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>D20QLD</t>
+          <t>5O5JNX</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DMS55Y</t>
+          <t>I03IJL</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DMD4HC</t>
+          <t>22OLD9</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>R14DV6</t>
+          <t>Q6Z06U</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>OZDU46</t>
+          <t>WLHQLA</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>LOSJ96</t>
+          <t>AK8KNM</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>D87NXB</t>
+          <t>2WL5D1</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>QD6CSG</t>
+          <t>OQ7LV5</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0Q7ERQ</t>
+          <t>AARVBB</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>81LY93</t>
+          <t>HC8A47</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0BVLDO</t>
+          <t>AG30UP</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>NNG0EE</t>
+          <t>SH971W</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>EGM3GB</t>
+          <t>F74IK5</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2AT5XU</t>
+          <t>9C9YWB</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1WBL6N</t>
+          <t>MB63TK</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CASO6I</t>
+          <t>6R14VU</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>AUQ8NM</t>
+          <t>GURVMC</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3THORG</t>
+          <t>5ANS6U</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>B554U8</t>
+          <t>EWZCCB</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>LIJIQ6</t>
+          <t>QLUWXK</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2CTHEQ</t>
+          <t>MKGP4J</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>F5ES1B</t>
+          <t>I40JJY</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CNB27Q</t>
+          <t>EA331L</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>RMTX3T</t>
+          <t>RH9SFF</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>WBABLS</t>
+          <t>AJIL4O</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>RILVJJ</t>
+          <t>ZXO2QY</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>5G5TRS</t>
+          <t>TRL6A2</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>5P3XEY</t>
+          <t>YT0Z18</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>FYAR60</t>
+          <t>QYHWAP</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>PP9L66</t>
+          <t>CNWF7M</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MT4NJC</t>
+          <t>1ULO5H</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>JVFQ2Y</t>
+          <t>74UOTT</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SF1QOT</t>
+          <t>Z2A21A</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>FT1E1J</t>
+          <t>RUCX0I</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>841OQ2</t>
+          <t>9QEYIO</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>QSP7W8</t>
+          <t>BIDVEF</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>6REMXZ</t>
+          <t>64VN7Q</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>V5S5OG</t>
+          <t>FIJHBV</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DPKT52</t>
+          <t>FLMJO7</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>XRI0Y6</t>
+          <t>N59K69</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>VRLNJY</t>
+          <t>TAQ3J0</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>LSW6CZ</t>
+          <t>84RWP2</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>L9PE9C</t>
+          <t>0XRFNO</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>VEY7X0</t>
+          <t>RHQ1ZC</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>NMDYM4</t>
+          <t>MY55IF</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>YKBBJL</t>
+          <t>Q2ZWDV</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>5P3UYL</t>
+          <t>K2W5X6</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>6G6SJS</t>
+          <t>21W963</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>GNEJEX</t>
+          <t>FL06AE</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>FBK09Y</t>
+          <t>S7FYWM</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>CW0JL8</t>
+          <t>9WV037</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>6FVZPX</t>
+          <t>QPF5G7</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DWWVB0</t>
+          <t>TP7WB7</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>TSGQLG</t>
+          <t>1J6UXU</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>CIZEER</t>
+          <t>VJTCKO</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>LCW5JE</t>
+          <t>QYTCFL</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>IVHMTS</t>
+          <t>8AVWS4</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>KHT6LA</t>
+          <t>5YNKCG</t>
         </is>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>5WRWE5</t>
+          <t>UPDLJI</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>8BSAHJ</t>
+          <t>OQC4ME</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>BV6T6L</t>
+          <t>GUIODM</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>OMDYC4</t>
+          <t>ZLFJF6</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ROUEJE</t>
+          <t>XMA1F6</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>YHRY0F</t>
+          <t>5FGB8Q</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2TQO92</t>
+          <t>4LZ6IT</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>R6YWDT</t>
+          <t>QQFLQI</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>AGXCT6</t>
+          <t>M8UQKJ</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>MJ25Q1</t>
+          <t>W7QTHS</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>M62YVM</t>
+          <t>0J05LC</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EU3JX0</t>
+          <t>ZM14VB</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>QG2KGR</t>
+          <t>WRYEJM</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>IZE98C</t>
+          <t>R40Y59</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>WZKHAC</t>
+          <t>VXXCWX</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>4ZC5YA</t>
+          <t>MBUGQW</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>UXTGF0</t>
+          <t>N7QQS9</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>GEXURX</t>
+          <t>QAP9FO</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>9ULX92</t>
+          <t>T23IPB</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>F3T0HY</t>
+          <t>K1CX43</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>XX61ZV</t>
+          <t>00GEGS</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>I9C4SZ</t>
+          <t>I3CEVQ</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>ZTAL45</t>
+          <t>NOAX8K</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>5BTHZ5</t>
+          <t>SHBB1F</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>15ZVS1</t>
+          <t>H5L3YC</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>6TPFAI</t>
+          <t>0ASQDE</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>F0O04H</t>
+          <t>FGKTT1</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>77EJ9U</t>
+          <t>3F0J8Z</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>CHHIK5</t>
+          <t>FF0O5Y</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>V7KVRP</t>
+          <t>KV620M</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>WGI0WB</t>
+          <t>NK2UMN</t>
         </is>
       </c>
     </row>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ZPQSLC</t>
+          <t>O1ITV9</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2Q61QI</t>
+          <t>N2LLT7</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>6BWSOX</t>
+          <t>4HIXO2</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>J6WDLK</t>
+          <t>EPBNZM</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EZC2KR</t>
+          <t>VZDJ7G</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>VVJHX0</t>
+          <t>V3S0MW</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2QM93G</t>
+          <t>D55NBS</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>59VQA3</t>
+          <t>LQUL6A</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>W77PSO</t>
+          <t>G8N87R</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>EBGURX</t>
+          <t>DX2F6Z</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>AFSWCB</t>
+          <t>J78N3M</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>MJMDE7</t>
+          <t>QI8DNH</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>9J5ANR</t>
+          <t>EV7TO1</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>5MA015</t>
+          <t>14VAMH</t>
         </is>
       </c>
     </row>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Z94YEX</t>
+          <t>QWGNEH</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>4PFJG3</t>
+          <t>ZF85L9</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>KJ3OH4</t>
+          <t>Y4YI5C</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>LQG7FA</t>
+          <t>M8GK7E</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>4BMKLF</t>
+          <t>08N0T6</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>WLAWH5</t>
+          <t>84IRUG</t>
         </is>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>60VHE5</t>
+          <t>BIJOSJ</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>NSK4XV</t>
+          <t>6GA9AL</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0GVNQU</t>
+          <t>VOBAHN</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>YML7JH</t>
+          <t>X5WNTO</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>8H3S5H</t>
+          <t>THH145</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>TSEDKF</t>
+          <t>0ZH0VL</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0DIMIC</t>
+          <t>FMCJ7Q</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>WEBW6M</t>
+          <t>R4TT7N</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>TTC3NQ</t>
+          <t>GJL0PI</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>7G17I0</t>
+          <t>L70WBK</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>4CG9O5</t>
+          <t>GJHVYH</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>IDQP1E</t>
+          <t>D2XP7M</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>VFEV3O</t>
+          <t>6NJXJI</t>
         </is>
       </c>
     </row>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>GHWQQN</t>
+          <t>ODKKBI</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>RYJZQI</t>
+          <t>SKSQIA</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>S25U1V</t>
+          <t>G1Y4TC</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>53ENMO</t>
+          <t>DK73HX</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>LK7UN7</t>
+          <t>JJ13P5</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>AZSM5E</t>
+          <t>HSD3RA</t>
         </is>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>C32OOS</t>
+          <t>TE5F36</t>
         </is>
       </c>
     </row>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>N5AOQU</t>
+          <t>30J1G7</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>KAN6BZ</t>
+          <t>5IPWFZ</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>8W5CML</t>
+          <t>1SU4PY</t>
         </is>
       </c>
     </row>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>O2B9LF</t>
+          <t>CB2ATX</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>J2UC64</t>
+          <t>QSJ6QG</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>RGGIBC</t>
+          <t>AIGP3V</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>55OS8Y</t>
+          <t>ZHSOWO</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>50L75U</t>
+          <t>QUL4KU</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>WOVUOR</t>
+          <t>8ORODW</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>HI9C54</t>
+          <t>56ZAOM</t>
         </is>
       </c>
     </row>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>13C5KD</t>
+          <t>P2LM2E</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>3VQNVT</t>
+          <t>DYFRWF</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2LYB8M</t>
+          <t>3PRP53</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>P8239V</t>
+          <t>8CT8NV</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>DXEGMC</t>
+          <t>P5HDNS</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>1XVGXU</t>
+          <t>T0ADP2</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2AA3BL</t>
+          <t>J0G0X5</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>G3N9OV</t>
+          <t>SDWLF4</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>74OM93</t>
+          <t>W83CYV</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Y6BZGR</t>
+          <t>5AUM23</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>DNX1ZE</t>
+          <t>YYQYAM</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>UL1A3E</t>
+          <t>YWV8CS</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>JL36JR</t>
+          <t>PDWK77</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>HPHG5A</t>
+          <t>XW63OU</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>EQP8O8</t>
+          <t>4JLFII</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>ZARGKL</t>
+          <t>O32W41</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>67OUDX</t>
+          <t>X5A4OG</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0Z4O0E</t>
+          <t>6DQCRQ</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>JY42W1</t>
+          <t>47CNCY</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2CCSFP</t>
+          <t>OU1O3V</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>WJOWIJ</t>
+          <t>JBW7DF</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>OXYIKU</t>
+          <t>HGNU9L</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>4P1UXZ</t>
+          <t>N5FFDO</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>O15WSM</t>
+          <t>PZB44K</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>I919XP</t>
+          <t>XGW2UZ</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>I7X7B1</t>
+          <t>MDCMUA</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>BACBXT</t>
+          <t>H5MR1C</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>RA8553</t>
+          <t>M8ZYC9</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>GU5PB5</t>
+          <t>TC9EI3</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>TMMGZD</t>
+          <t>4R8C7S</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0BR3KY</t>
+          <t>YYB9Z7</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>V2TESU</t>
+          <t>LZMVDQ</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>BHE586</t>
+          <t>9P8XEO</t>
         </is>
       </c>
     </row>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>VJN4J0</t>
+          <t>Z2MKDN</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>J89M57</t>
+          <t>573YY7</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>4MXI44</t>
+          <t>AICVDL</t>
         </is>
       </c>
     </row>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>6AF4N3</t>
+          <t>FAS14C</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>W80FJ0</t>
+          <t>0L80E0</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>7HTABK</t>
+          <t>D3TKK2</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>CYT2CG</t>
+          <t>6EGFVO</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>M4RKLE</t>
+          <t>3WWF84</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>RZTIHS</t>
+          <t>BGCWF8</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>FEW1UY</t>
+          <t>Z637OR</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>K81HSF</t>
+          <t>BFLVJT</t>
         </is>
       </c>
     </row>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>VWBQE0</t>
+          <t>RB5QFA</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>57J4GX</t>
+          <t>7UX5QK</t>
         </is>
       </c>
     </row>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Z2URG4</t>
+          <t>QBSDVD</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>5SDTBX</t>
+          <t>T3C1FT</t>
         </is>
       </c>
     </row>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>48KBTE</t>
+          <t>U6TYWF</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>K85E9I</t>
+          <t>C0B8M4</t>
         </is>
       </c>
     </row>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>S44VLB</t>
+          <t>UHGO9E</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>N2JI3C</t>
+          <t>HWP9G4</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>7A2QQT</t>
+          <t>C16FAL</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>ZUMSYM</t>
+          <t>Q7F7L4</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>6BAIZW</t>
+          <t>STV4TG</t>
         </is>
       </c>
     </row>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>6WVF64</t>
+          <t>TFY7IG</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>291M2Q</t>
+          <t>K39ZXN</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>7IYX4Z</t>
+          <t>DKQJCR</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>5WD0C4</t>
+          <t>JS6JDL</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>PGZDEV</t>
+          <t>CA2SWY</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>C4F0VY</t>
+          <t>7N5B8B</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>OAVPUI</t>
+          <t>7WBKL0</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>V4TTPM</t>
+          <t>JRVWYP</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>O5DNHD</t>
+          <t>4WLWQE</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>ZNGCN1</t>
+          <t>5D3TEE</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>CFGT0X</t>
+          <t>ZVYBAE</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>RTZ1ZG</t>
+          <t>ZHYDYV</t>
         </is>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>FHQ0RC</t>
+          <t>51P54B</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>7BA4RL</t>
+          <t>WK6BSA</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>JICDRT</t>
+          <t>VLUVKJ</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>VNGYT8</t>
+          <t>ABUVKX</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>HBYC2R</t>
+          <t>2W8403</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>IJL34E</t>
+          <t>54DQPH</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>30BNYR</t>
+          <t>F1O2U4</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>J6272D</t>
+          <t>SQHIM5</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>TYTTLB</t>
+          <t>U3EBD5</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>RMBQRH</t>
+          <t>XRMPEA</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>X9L8EM</t>
+          <t>81N2N5</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>WP2X0A</t>
+          <t>33KE5T</t>
         </is>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>PXELKM</t>
+          <t>JJ517S</t>
         </is>
       </c>
     </row>

--- a/Actual Coding/Luke_posts.xlsx
+++ b/Actual Coding/Luke_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DJU8R1</t>
+          <t>8OWFDZ</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UA0Q93</t>
+          <t>JFXX1B</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>53H28R</t>
+          <t>90DGOJ</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TZJ8ZR</t>
+          <t>RPHUSH</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D81R42</t>
+          <t>9UP2GR</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>YQQJRG</t>
+          <t>9B3V58</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LRIPTP</t>
+          <t>PAHYD0</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1KJ3SW</t>
+          <t>441N1M</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2JAGBF</t>
+          <t>C5UVQW</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BQRA6W</t>
+          <t>YOYMXF</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>882PRK</t>
+          <t>TQ6JHM</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1OHAO3</t>
+          <t>BVKBZT</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8FOLKE</t>
+          <t>MNSIYG</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EJDXDV</t>
+          <t>ZAAFWY</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>UT0RXC</t>
+          <t>QML6IY</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>XGAEQU</t>
+          <t>BTB9L1</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1JKSME</t>
+          <t>I7PCUP</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>VBSQFH</t>
+          <t>1S075O</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>O8RNC1</t>
+          <t>R2P0PS</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SN450K</t>
+          <t>3PSB06</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HOQAVE</t>
+          <t>07P3CJ</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3AGYIL</t>
+          <t>4HV7O8</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4JJQY1</t>
+          <t>LMWOGA</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O0GSJ6</t>
+          <t>SBCOE7</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11MW10</t>
+          <t>WO9JH6</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2Y8PY8</t>
+          <t>WCLG9O</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RNA75K</t>
+          <t>VJJN9M</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>V390SV</t>
+          <t>FNBWEH</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3BY59S</t>
+          <t>2ON9F8</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>WYQ3KR</t>
+          <t>W63YDU</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3WAYE0</t>
+          <t>97OEQN</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5QKKJG</t>
+          <t>STQZES</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GJIALE</t>
+          <t>09HVV7</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3BM3H4</t>
+          <t>34W8L9</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>VRH7LH</t>
+          <t>WUEE0R</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GXDWJ7</t>
+          <t>HVZQZC</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>D3NFW7</t>
+          <t>5F8O5Q</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>P6FE6P</t>
+          <t>W2ABO3</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>IVWHC9</t>
+          <t>V5VT1I</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>QNG8J1</t>
+          <t>J7K0EL</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1IEMCP</t>
+          <t>UNPC4M</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ZY812K</t>
+          <t>3YS20V</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5M1LSP</t>
+          <t>DXEGUT</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>KCM9LJ</t>
+          <t>XY7SB0</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4N00VS</t>
+          <t>26LFGD</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ZG9MWK</t>
+          <t>T6T0SV</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5BUWOB</t>
+          <t>X45LPK</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4FANJ0</t>
+          <t>K2BLYA</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>IZLDFJ</t>
+          <t>HSL86I</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1QXDVU</t>
+          <t>V5ZSGQ</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AMLA0A</t>
+          <t>2K14W1</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GR8N5U</t>
+          <t>JCZGCO</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2BIQJR</t>
+          <t>76C14N</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>YZYN4X</t>
+          <t>ZOIG8K</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1ARKCL</t>
+          <t>J7O8PE</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>M6G6MV</t>
+          <t>1UF4W8</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6RC9PH</t>
+          <t>MOMDA8</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CSLICX</t>
+          <t>9SX4A7</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>WER6NZ</t>
+          <t>92IZBD</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HE9GES</t>
+          <t>UQ6YMA</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>P76WS4</t>
+          <t>10BKKL</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4WTQ47</t>
+          <t>SYZ11P</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4BE0XN</t>
+          <t>32WBEF</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0BYY30</t>
+          <t>VWO1TB</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>LLRBQQ</t>
+          <t>BMPHMY</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>7KQLEC</t>
+          <t>4MAQC3</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GF9YV7</t>
+          <t>31CG4Q</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Q7TS7J</t>
+          <t>B24UGI</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>OYYXWP</t>
+          <t>AI51V9</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>HXCGYG</t>
+          <t>6Y531V</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HJ0Q69</t>
+          <t>9EW9DI</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GZBJPV</t>
+          <t>9SB4L5</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RMQVK6</t>
+          <t>3I9E79</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>FQP9LO</t>
+          <t>4XBYV5</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>FJQ908</t>
+          <t>WZLXI4</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MW7SID</t>
+          <t>CP3KXB</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1JMR4J</t>
+          <t>19Q7BZ</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CASO89</t>
+          <t>MQ4OEK</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>WGL7AF</t>
+          <t>HKG5I4</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>VJ0COM</t>
+          <t>GG97AE</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4UPWWT</t>
+          <t>T4VRJX</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>5O5JNX</t>
+          <t>0IZ7DU</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>I03IJL</t>
+          <t>223O4B</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>22OLD9</t>
+          <t>4SE1FS</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Q6Z06U</t>
+          <t>Z3V790</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>WLHQLA</t>
+          <t>8ZFYMN</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>AK8KNM</t>
+          <t>AGHNPN</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2WL5D1</t>
+          <t>YBEE79</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>OQ7LV5</t>
+          <t>PMF5NO</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>AARVBB</t>
+          <t>54RPBW</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>HC8A47</t>
+          <t>TJY53C</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>AG30UP</t>
+          <t>YLYVTL</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SH971W</t>
+          <t>ZI167R</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>F74IK5</t>
+          <t>6RLZ4K</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>9C9YWB</t>
+          <t>5YNNNT</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MB63TK</t>
+          <t>WJIJVT</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>6R14VU</t>
+          <t>UNSMZX</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>GURVMC</t>
+          <t>EW8ARZ</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>5ANS6U</t>
+          <t>UIW0WH</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>EWZCCB</t>
+          <t>75PD1F</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>QLUWXK</t>
+          <t>WFUEZP</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MKGP4J</t>
+          <t>NPAAKC</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>I40JJY</t>
+          <t>5EOMAY</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>EA331L</t>
+          <t>PRFUUB</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>RH9SFF</t>
+          <t>NUQJU7</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>AJIL4O</t>
+          <t>VROZYT</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ZXO2QY</t>
+          <t>M2YXQE</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>TRL6A2</t>
+          <t>TD4FQ4</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>YT0Z18</t>
+          <t>OH417K</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>QYHWAP</t>
+          <t>0N1MR1</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CNWF7M</t>
+          <t>UMPETE</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1ULO5H</t>
+          <t>NGIB6G</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>74UOTT</t>
+          <t>SG9MFS</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Z2A21A</t>
+          <t>SQRRNG</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>RUCX0I</t>
+          <t>MP0VO1</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>9QEYIO</t>
+          <t>EIGNKE</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>BIDVEF</t>
+          <t>I70TLH</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>64VN7Q</t>
+          <t>P7UBSR</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>FIJHBV</t>
+          <t>UBUKI2</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>FLMJO7</t>
+          <t>OSLL1W</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>N59K69</t>
+          <t>10TVZ0</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>TAQ3J0</t>
+          <t>GXMKE8</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>84RWP2</t>
+          <t>AMIMGX</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0XRFNO</t>
+          <t>62Y76Z</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>RHQ1ZC</t>
+          <t>C0RTLX</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>MY55IF</t>
+          <t>L12GKJ</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Q2ZWDV</t>
+          <t>P5T97F</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>K2W5X6</t>
+          <t>P0VMBO</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>21W963</t>
+          <t>3365DR</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>FL06AE</t>
+          <t>Q545QE</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>S7FYWM</t>
+          <t>UC8D8D</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>9WV037</t>
+          <t>RJQ9YO</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>QPF5G7</t>
+          <t>IMJPGK</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>TP7WB7</t>
+          <t>1CNIEE</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1J6UXU</t>
+          <t>D2Q5U6</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>VJTCKO</t>
+          <t>43U7NF</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>QYTCFL</t>
+          <t>38W2D0</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>8AVWS4</t>
+          <t>B0ELBK</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>5YNKCG</t>
+          <t>9IJ4PR</t>
         </is>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>UPDLJI</t>
+          <t>HMZQTN</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>OQC4ME</t>
+          <t>CI411K</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>GUIODM</t>
+          <t>3PTG5Z</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ZLFJF6</t>
+          <t>FABL32</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>XMA1F6</t>
+          <t>U3FFB5</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>5FGB8Q</t>
+          <t>6CZ4H8</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>4LZ6IT</t>
+          <t>OWYRAK</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>QQFLQI</t>
+          <t>4UF5YA</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>M8UQKJ</t>
+          <t>UKXN58</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>W7QTHS</t>
+          <t>QIZKSG</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0J05LC</t>
+          <t>E4WZP1</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ZM14VB</t>
+          <t>M6L8BG</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>WRYEJM</t>
+          <t>OA77D8</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>R40Y59</t>
+          <t>TFCCXM</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>VXXCWX</t>
+          <t>3NFSJL</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MBUGQW</t>
+          <t>YP8BGJ</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>N7QQS9</t>
+          <t>0JJ5QE</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>QAP9FO</t>
+          <t>0KSUFA</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>T23IPB</t>
+          <t>4GMPHL</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>K1CX43</t>
+          <t>Q0NU4M</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>00GEGS</t>
+          <t>49NHWQ</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>I3CEVQ</t>
+          <t>YEDB4Z</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>NOAX8K</t>
+          <t>8EBNW6</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SHBB1F</t>
+          <t>YAK0B8</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>H5L3YC</t>
+          <t>KH9K00</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0ASQDE</t>
+          <t>4D1UF5</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>FGKTT1</t>
+          <t>5M3980</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>3F0J8Z</t>
+          <t>54PH5E</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>FF0O5Y</t>
+          <t>K1HD45</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>KV620M</t>
+          <t>XHRNHA</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>NK2UMN</t>
+          <t>6H4SAE</t>
         </is>
       </c>
     </row>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>O1ITV9</t>
+          <t>B155AN</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>N2LLT7</t>
+          <t>ZWHQJK</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>4HIXO2</t>
+          <t>PFUJTW</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EPBNZM</t>
+          <t>J94CAL</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>VZDJ7G</t>
+          <t>W8HNXF</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>V3S0MW</t>
+          <t>PSSYPH</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>D55NBS</t>
+          <t>5KYJ0H</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>LQUL6A</t>
+          <t>3QMH89</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>G8N87R</t>
+          <t>OBLUIH</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DX2F6Z</t>
+          <t>NFY7RO</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>J78N3M</t>
+          <t>8KZPZS</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>QI8DNH</t>
+          <t>79RK3D</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>EV7TO1</t>
+          <t>GP23BS</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>14VAMH</t>
+          <t>OLZOU8</t>
         </is>
       </c>
     </row>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>QWGNEH</t>
+          <t>6V321C</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ZF85L9</t>
+          <t>R2YOMG</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Y4YI5C</t>
+          <t>2GTXVL</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>M8GK7E</t>
+          <t>Y4NSVB</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>08N0T6</t>
+          <t>CNC6ZA</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>84IRUG</t>
+          <t>B0LO5V</t>
         </is>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>BIJOSJ</t>
+          <t>9ND5LC</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>6GA9AL</t>
+          <t>870587</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>VOBAHN</t>
+          <t>TI7CGA</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>X5WNTO</t>
+          <t>Z5IPY8</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>THH145</t>
+          <t>J04X09</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0ZH0VL</t>
+          <t>Z9NXHA</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>FMCJ7Q</t>
+          <t>FWNM99</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>R4TT7N</t>
+          <t>8FYDJ2</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>GJL0PI</t>
+          <t>A9JFHU</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>L70WBK</t>
+          <t>Q499M3</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>GJHVYH</t>
+          <t>XEWXJT</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>D2XP7M</t>
+          <t>9TXVFX</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>6NJXJI</t>
+          <t>NRYZL2</t>
         </is>
       </c>
     </row>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ODKKBI</t>
+          <t>A17J2A</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SKSQIA</t>
+          <t>7ZIIPT</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>G1Y4TC</t>
+          <t>SSI23A</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>DK73HX</t>
+          <t>P9XBT4</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>JJ13P5</t>
+          <t>DR2E1S</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>HSD3RA</t>
+          <t>DW8Z56</t>
         </is>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>TE5F36</t>
+          <t>AVD0L7</t>
         </is>
       </c>
     </row>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>30J1G7</t>
+          <t>JXXHQZ</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>5IPWFZ</t>
+          <t>8LNH9E</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1SU4PY</t>
+          <t>W96GOW</t>
         </is>
       </c>
     </row>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>CB2ATX</t>
+          <t>S6LF0W</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>QSJ6QG</t>
+          <t>95VYN6</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>AIGP3V</t>
+          <t>FI2W8T</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>ZHSOWO</t>
+          <t>4T9K44</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>QUL4KU</t>
+          <t>OU0JMH</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>8ORODW</t>
+          <t>QKU64D</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>56ZAOM</t>
+          <t>ZHPDXF</t>
         </is>
       </c>
     </row>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>P2LM2E</t>
+          <t>7TD7Y3</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>DYFRWF</t>
+          <t>RWD9OE</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>3PRP53</t>
+          <t>50TL85</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>8CT8NV</t>
+          <t>G2FAZV</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>P5HDNS</t>
+          <t>5AF7ZW</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>T0ADP2</t>
+          <t>GBUJBO</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>J0G0X5</t>
+          <t>RMO20U</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>SDWLF4</t>
+          <t>P3J8AI</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>W83CYV</t>
+          <t>K10RUR</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>5AUM23</t>
+          <t>7F3G2C</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>YYQYAM</t>
+          <t>LTOVW2</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>YWV8CS</t>
+          <t>PGZ0QC</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>PDWK77</t>
+          <t>PLVNTY</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>XW63OU</t>
+          <t>RYX40Y</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>4JLFII</t>
+          <t>UUFD7J</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>O32W41</t>
+          <t>EN97HX</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>X5A4OG</t>
+          <t>1PHYVV</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>6DQCRQ</t>
+          <t>HLAPM5</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>47CNCY</t>
+          <t>JLE7UY</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>OU1O3V</t>
+          <t>8MGIED</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>JBW7DF</t>
+          <t>RXZXE9</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>HGNU9L</t>
+          <t>1KJXKJ</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>N5FFDO</t>
+          <t>7SJHXY</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>PZB44K</t>
+          <t>114YP9</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>XGW2UZ</t>
+          <t>MBNPMR</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>MDCMUA</t>
+          <t>EMZFDE</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>H5MR1C</t>
+          <t>HBFPZO</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>M8ZYC9</t>
+          <t>1FMQK7</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>TC9EI3</t>
+          <t>DXD3C6</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>4R8C7S</t>
+          <t>FYIZRJ</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>YYB9Z7</t>
+          <t>M8N7YR</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>LZMVDQ</t>
+          <t>ZZ8Z48</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>9P8XEO</t>
+          <t>Y6N5N9</t>
         </is>
       </c>
     </row>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Z2MKDN</t>
+          <t>JF6ZQU</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>573YY7</t>
+          <t>N4XCZY</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>AICVDL</t>
+          <t>U60557</t>
         </is>
       </c>
     </row>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>FAS14C</t>
+          <t>YZBNLK</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0L80E0</t>
+          <t>T6AX6Y</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>D3TKK2</t>
+          <t>UGDP8Y</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>6EGFVO</t>
+          <t>19DZB2</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>3WWF84</t>
+          <t>IJT0ZF</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>BGCWF8</t>
+          <t>W6B5V1</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Z637OR</t>
+          <t>YCWOBS</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>BFLVJT</t>
+          <t>P6GS4Z</t>
         </is>
       </c>
     </row>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>RB5QFA</t>
+          <t>YKB033</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>7UX5QK</t>
+          <t>425CHO</t>
         </is>
       </c>
     </row>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>QBSDVD</t>
+          <t>M8QFP8</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>T3C1FT</t>
+          <t>3I75HG</t>
         </is>
       </c>
     </row>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>U6TYWF</t>
+          <t>NO9ZQL</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>C0B8M4</t>
+          <t>Y7ZXMR</t>
         </is>
       </c>
     </row>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>UHGO9E</t>
+          <t>VOXT6J</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>HWP9G4</t>
+          <t>K46JN3</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>C16FAL</t>
+          <t>FTDZDR</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Q7F7L4</t>
+          <t>0MWNMA</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>STV4TG</t>
+          <t>R77IUE</t>
         </is>
       </c>
     </row>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>TFY7IG</t>
+          <t>CWJ497</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>K39ZXN</t>
+          <t>DP2M7L</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>DKQJCR</t>
+          <t>Q9XOWJ</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>JS6JDL</t>
+          <t>AOWMD3</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>CA2SWY</t>
+          <t>SV9OOD</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>7N5B8B</t>
+          <t>IQ27YX</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>7WBKL0</t>
+          <t>O76COT</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>JRVWYP</t>
+          <t>PKN875</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>4WLWQE</t>
+          <t>0VYB9N</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>5D3TEE</t>
+          <t>9WMRCV</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>ZVYBAE</t>
+          <t>GK282I</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>ZHYDYV</t>
+          <t>STED8E</t>
         </is>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>51P54B</t>
+          <t>E8S7R9</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>WK6BSA</t>
+          <t>IRVK1T</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>VLUVKJ</t>
+          <t>SUGS63</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>ABUVKX</t>
+          <t>TJS6YG</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2W8403</t>
+          <t>TRHJ9T</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>54DQPH</t>
+          <t>RXVVLA</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>F1O2U4</t>
+          <t>W744CP</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>SQHIM5</t>
+          <t>N7I28V</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>U3EBD5</t>
+          <t>4ZS9QY</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>XRMPEA</t>
+          <t>PEWJ54</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>81N2N5</t>
+          <t>P8V13Y</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>33KE5T</t>
+          <t>P2KF7G</t>
         </is>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>JJ517S</t>
+          <t>FNR207</t>
         </is>
       </c>
     </row>
